--- a/Template/Example/Договоры.xlsx
+++ b/Template/Example/Договоры.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -18,12 +18,12 @@
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоры!$A$1:$V$22</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="152511" refMode="R1C1"/>
+  <x:calcPr calcId="152511"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <x:si>
     <x:t>Содержание</x:t>
   </x:si>
@@ -133,9 +133,6 @@
     <x:t>Отдел продаж</x:t>
   </x:si>
   <x:si>
-    <x:t>C:\ImportData\line.txt</x:t>
-  </x:si>
-  <x:si>
     <x:t>Евро</x:t>
   </x:si>
   <x:si>
@@ -160,19 +157,28 @@
     <x:t>Подробности</x:t>
   </x:si>
   <x:si>
-    <x:t>Загружен частично</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07.02.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найдено несколько записей типа сущности "Подразделение" с именем "Отдел продаж". Проверьте, что выбрана верная запись.</x:t>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.04.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден файл по заданому пути: "C:\ImportData\line.txt"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\tmp\IncommingLetter1.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -796,8 +802,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:dimension ref="A1:W22"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <x:selection activeCell="T1" sqref="T1:W1"/>
+    <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="I3" sqref="I3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -885,19 +891,19 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="T1" s="28" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="U1" s="28" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="U1" s="28" t="s">
+      <x:c r="V1" s="28" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="V1" s="28" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="W1"/>
     </x:row>
     <x:row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <x:c r="A2" s="32" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B2" s="7">
         <x:v>40410</x:v>
@@ -921,7 +927,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I2" s="37" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J2" s="11">
         <x:v>40410</x:v>
@@ -933,30 +939,30 @@
         <x:v>10000</x:v>
       </x:c>
       <x:c r="M2" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N2" s="10" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O2" s="10"/>
       <x:c r="P2" s="10"/>
       <x:c r="Q2" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="R2" s="36">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S2" s="38" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="T2" s="38" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U2" s="39" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="U2" s="39" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="V2" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="W2"/>
     </x:row>
@@ -1422,11 +1428,8 @@
   </x:sheetData>
   <x:sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
   <x:autoFilter ref="A1:V22"/>
-  <x:hyperlinks>
-    <x:hyperlink ref="I2" r:id="rId1" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
-  </x:hyperlinks>
   <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </x:worksheet>
 </file>
 
